--- a/MSc_Data_Profiles.xlsx
+++ b/MSc_Data_Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F705F858-E7F8-274F-8FC4-688F5EB7DE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="14_{F705F858-E7F8-274F-8FC4-688F5EB7DE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA65AFF-F2B8-C34A-B62A-386B8B4C28BE}"/>
   <bookViews>
-    <workbookView xWindow="-23360" yWindow="2820" windowWidth="23600" windowHeight="14340" firstSheet="7" activeTab="18" xr2:uid="{FACBF1FD-B3FF-9844-9E38-0948D90F3B76}"/>
+    <workbookView xWindow="-23360" yWindow="2820" windowWidth="23600" windowHeight="14340" activeTab="1" xr2:uid="{FACBF1FD-B3FF-9844-9E38-0948D90F3B76}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX8" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="9">
   <si>
     <t>Distance</t>
   </si>
@@ -77,64 +77,10 @@
     <t>MgNumMin</t>
   </si>
   <si>
-    <t>Mg_no_decouple_1sigma_ppm</t>
+    <t>V2_Profile</t>
   </si>
   <si>
-    <t>GCPX48</t>
-  </si>
-  <si>
-    <t>CPX8</t>
-  </si>
-  <si>
-    <t>CPX29</t>
-  </si>
-  <si>
-    <t>CPX40</t>
-  </si>
-  <si>
-    <t>CPX65</t>
-  </si>
-  <si>
-    <t>CPX67</t>
-  </si>
-  <si>
-    <t>CPX84</t>
-  </si>
-  <si>
-    <t>CPX140</t>
-  </si>
-  <si>
-    <t>CPX164</t>
-  </si>
-  <si>
-    <t>CPX224</t>
-  </si>
-  <si>
-    <t>GCPX5</t>
-  </si>
-  <si>
-    <t>GCPX22</t>
-  </si>
-  <si>
-    <t>GCPX75</t>
-  </si>
-  <si>
-    <t>GCPX83</t>
-  </si>
-  <si>
-    <t>GCPX87</t>
-  </si>
-  <si>
-    <t>GCPX116</t>
-  </si>
-  <si>
-    <t>GCPX118</t>
-  </si>
-  <si>
-    <t>GCPX125</t>
-  </si>
-  <si>
-    <t>GCPX133</t>
+    <t>V1_Profile</t>
   </si>
 </sst>
 </file>
@@ -497,7 +443,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,7 +1299,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2557,7 +2503,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2566,10 +2512,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2588,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3181,7 +3127,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5255,7 +5201,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5286,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -7068,7 +7014,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7099,7 +7045,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -7866,7 +7812,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7897,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9737,7 +9683,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9768,7 +9714,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -11956,7 +11902,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11987,7 +11933,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -13218,7 +13164,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13249,7 +13195,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -14769,8 +14715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E7CC0D-8C21-154B-B431-F4B052DCAB45}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14801,7 +14747,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17131,15 +17077,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701ADAEE-6560-C945-B5DA-5B2F744A9257}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17162,10 +17108,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17188,10 +17137,13 @@
         <v>72.073652809999999</v>
       </c>
       <c r="H2">
+        <v>73.951370240000003</v>
+      </c>
+      <c r="I2">
         <v>73.8337864046145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.5596233850000001</v>
       </c>
@@ -17214,10 +17166,13 @@
         <v>72.248749459999999</v>
       </c>
       <c r="H3">
+        <v>73.963450161854993</v>
+      </c>
+      <c r="I3">
         <v>73.833786442062305</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.1192467709999998</v>
       </c>
@@ -17240,10 +17195,13 @@
         <v>72.421176540000005</v>
       </c>
       <c r="H4">
+        <v>73.974716727747904</v>
+      </c>
+      <c r="I4">
         <v>73.833786564296503</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4.6788701560000003</v>
       </c>
@@ -17266,10 +17224,13 @@
         <v>71.594873719999995</v>
       </c>
       <c r="H5">
+        <v>73.984467154000001</v>
+      </c>
+      <c r="I5">
         <v>73.833787017927193</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.2384935419999996</v>
       </c>
@@ -17292,10 +17253,13 @@
         <v>72.572706229999994</v>
       </c>
       <c r="H6">
+        <v>73.992229407845102</v>
+      </c>
+      <c r="I6">
         <v>73.833788625597407</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.7981169269999997</v>
       </c>
@@ -17318,10 +17282,13 @@
         <v>71.465443789999995</v>
       </c>
       <c r="H7">
+        <v>73.997904729143599</v>
+      </c>
+      <c r="I7">
         <v>73.833794005228896</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9.3577403130000008</v>
       </c>
@@ -17344,10 +17311,13 @@
         <v>71.854215769999996</v>
       </c>
       <c r="H8">
+        <v>74.001924489690396</v>
+      </c>
+      <c r="I8">
         <v>73.833810985730906</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10.917363699999999</v>
       </c>
@@ -17370,10 +17340,13 @@
         <v>72.736373299999997</v>
       </c>
       <c r="H9">
+        <v>74.005418733146996</v>
+      </c>
+      <c r="I9">
         <v>73.833861554128106</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12.476987080000001</v>
       </c>
@@ -17396,10 +17369,13 @@
         <v>72.4484858</v>
       </c>
       <c r="H10">
+        <v>74.010376323164706</v>
+      </c>
+      <c r="I10">
         <v>73.834003711107002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14.036610469999999</v>
       </c>
@@ -17422,10 +17398,13 @@
         <v>72.084827869999998</v>
       </c>
       <c r="H11">
+        <v>74.019765694738794</v>
+      </c>
+      <c r="I11">
         <v>73.834380632905294</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15.596233850000001</v>
       </c>
@@ -17448,10 +17427,13 @@
         <v>72.798297989999995</v>
       </c>
       <c r="H12">
+        <v>74.037594125187695</v>
+      </c>
+      <c r="I12">
         <v>73.835323500246304</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17.15585724</v>
       </c>
@@ -17474,10 +17456,13 @@
         <v>71.69404668</v>
       </c>
       <c r="H13">
+        <v>74.068863815863097</v>
+      </c>
+      <c r="I13">
         <v>73.837549472563595</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>18.715480629999998</v>
       </c>
@@ -17500,10 +17485,13 @@
         <v>71.636026810000004</v>
       </c>
       <c r="H14">
+        <v>74.1194028578943</v>
+      </c>
+      <c r="I14">
         <v>73.842507614399807</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20.27510401</v>
       </c>
@@ -17526,10 +17514,13 @@
         <v>71.409553729999999</v>
       </c>
       <c r="H15">
+        <v>74.195581300855494</v>
+      </c>
+      <c r="I15">
         <v>73.852926296366107</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21.834727399999998</v>
       </c>
@@ -17552,10 +17543,13 @@
         <v>72.526501100000004</v>
       </c>
       <c r="H16">
+        <v>74.303887717395099</v>
+      </c>
+      <c r="I16">
         <v>73.873583953324996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23.39435078</v>
       </c>
@@ -17578,10 +17572,13 @@
         <v>71.569854379999995</v>
       </c>
       <c r="H17">
+        <v>74.450390299211605</v>
+      </c>
+      <c r="I17">
         <v>73.912238277269907</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24.953974169999999</v>
       </c>
@@ -17604,10 +17601,13 @@
         <v>70.910106479999996</v>
       </c>
       <c r="H18">
+        <v>74.640197160558799</v>
+      </c>
+      <c r="I18">
         <v>73.980470281902797</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>26.51359755</v>
       </c>
@@ -17630,10 +17630,13 @@
         <v>71.924384259999997</v>
       </c>
       <c r="H19">
+        <v>74.876902211658106</v>
+      </c>
+      <c r="I19">
         <v>74.094111475429699</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28.073220939999999</v>
       </c>
@@ -17656,10 +17659,13 @@
         <v>71.196610910000004</v>
       </c>
       <c r="H20">
+        <v>75.162068050580203</v>
+      </c>
+      <c r="I20">
         <v>74.2727251920697</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>29.63284432</v>
       </c>
@@ -17682,10 +17688,13 @@
         <v>72.361984460000002</v>
       </c>
       <c r="H21">
+        <v>75.494955809447305</v>
+      </c>
+      <c r="I21">
         <v>74.537589765290406</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>31.192467709999999</v>
       </c>
@@ -17708,10 +17717,13 @@
         <v>71.313752960000002</v>
       </c>
       <c r="H22">
+        <v>75.872406646233898</v>
+      </c>
+      <c r="I22">
         <v>74.908169956456504</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>32.75209109</v>
       </c>
@@ -17734,10 +17746,13 @@
         <v>73.209482480000005</v>
       </c>
       <c r="H23">
+        <v>76.288887302939401</v>
+      </c>
+      <c r="I23">
         <v>75.397415662055806</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34.311714479999999</v>
       </c>
@@ -17760,10 +17775,13 @@
         <v>74.002843189999993</v>
       </c>
       <c r="H24">
+        <v>76.7368816357382</v>
+      </c>
+      <c r="I24">
         <v>76.006892783724197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>35.871337869999998</v>
       </c>
@@ -17786,10 +17804,13 @@
         <v>76.326975200000007</v>
       </c>
       <c r="H25">
+        <v>77.207383309288701</v>
+      </c>
+      <c r="I25">
         <v>76.723250520631495</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>37.430961250000003</v>
       </c>
@@ -17812,10 +17833,13 @@
         <v>76.918762790000002</v>
       </c>
       <c r="H26">
+        <v>77.690504812312597</v>
+      </c>
+      <c r="I26">
         <v>77.5177266168062</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38.990584640000002</v>
       </c>
@@ -17838,10 +17862,13 @@
         <v>77.984345189999999</v>
       </c>
       <c r="H27">
+        <v>78.176181950826901</v>
+      </c>
+      <c r="I27">
         <v>78.349126150563905</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>40.550208019999999</v>
       </c>
@@ -17864,10 +17891,13 @@
         <v>77.373031639999994</v>
       </c>
       <c r="H28">
+        <v>78.654805634550598</v>
+      </c>
+      <c r="I28">
         <v>79.170046609017007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>42.109831409999998</v>
       </c>
@@ -17890,10 +17920,13 @@
         <v>77.375160070000007</v>
       </c>
       <c r="H29">
+        <v>79.117774336547896</v>
+      </c>
+      <c r="I29">
         <v>79.934886328976901</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>43.669454790000003</v>
       </c>
@@ -17916,10 +17949,13 @@
         <v>78.372176760000002</v>
       </c>
       <c r="H30">
+        <v>79.557903358154405</v>
+      </c>
+      <c r="I30">
         <v>80.607253579515998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>45.229078180000002</v>
       </c>
@@ -17942,10 +17978,13 @@
         <v>79.941869940000004</v>
       </c>
       <c r="H31">
+        <v>79.969649909938695</v>
+      </c>
+      <c r="I31">
         <v>81.164951794558306</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>46.78870156</v>
       </c>
@@ -17968,10 +18007,13 @@
         <v>79.896889970000004</v>
       </c>
       <c r="H32">
+        <v>80.349202558092898</v>
+      </c>
+      <c r="I32">
         <v>81.601454341803205</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>48.348324949999999</v>
       </c>
@@ -17994,10 +18036,13 @@
         <v>80.002590769999998</v>
       </c>
       <c r="H33">
+        <v>80.6944156268125</v>
+      </c>
+      <c r="I33">
         <v>81.923821197188005</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>49.907948339999997</v>
       </c>
@@ -18020,10 +18065,13 @@
         <v>81.047453959999999</v>
       </c>
       <c r="H34">
+        <v>81.004604385761098</v>
+      </c>
+      <c r="I34">
         <v>82.148434781627699</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>51.467571720000002</v>
       </c>
@@ -18046,10 +18094,13 @@
         <v>80.301003339999994</v>
       </c>
       <c r="H35">
+        <v>81.280300258565902</v>
+      </c>
+      <c r="I35">
         <v>82.296142758570596</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>53.027195110000001</v>
       </c>
@@ -18072,10 +18123,13 @@
         <v>80.231255540000006</v>
       </c>
       <c r="H36">
+        <v>81.522972709294905</v>
+      </c>
+      <c r="I36">
         <v>82.387851601425098</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>54.586818489999999</v>
       </c>
@@ -18098,10 +18152,13 @@
         <v>80.690536109999996</v>
       </c>
       <c r="H37">
+        <v>81.734706387071498</v>
+      </c>
+      <c r="I37">
         <v>82.441724581993697</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>56.146441879999998</v>
       </c>
@@ -18124,10 +18181,13 @@
         <v>80.611007079999993</v>
       </c>
       <c r="H38">
+        <v>81.917943875793995</v>
+      </c>
+      <c r="I38">
         <v>82.471976189880493</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>57.706065260000003</v>
       </c>
@@ -18150,10 +18210,13 @@
         <v>80.851335489999997</v>
       </c>
       <c r="H39">
+        <v>82.075293497110707</v>
+      </c>
+      <c r="I39">
         <v>82.4889514702718</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>59.265688650000001</v>
       </c>
@@ -18176,6 +18239,9 @@
         <v>81.387979430000001</v>
       </c>
       <c r="H40">
+        <v>82.209340685031606</v>
+      </c>
+      <c r="I40">
         <v>82.500060777155099</v>
       </c>
     </row>
@@ -18189,7 +18255,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18220,7 +18286,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -19255,7 +19321,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19273,20 +19339,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -20517,7 +20583,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20548,7 +20614,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -22243,7 +22309,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22258,7 +22324,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -22274,7 +22340,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -25042,7 +25108,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25073,7 +25139,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -26043,7 +26109,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26074,7 +26140,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -27972,7 +28038,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28003,7 +28069,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
